--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2102812.674689163</v>
+        <v>2101978.352273779</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5736895.963613645</v>
+        <v>5736895.96361364</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169739.126259459</v>
+        <v>1156812.281079737</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7607861.79919203</v>
+        <v>7610063.638300766</v>
       </c>
     </row>
     <row r="11">
@@ -661,16 +661,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>382.2240687240703</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>144.9378196009466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
         <v>184.5278504388888</v>
@@ -873,16 +873,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>70.07157928276324</v>
+        <v>67.6828764542704</v>
       </c>
       <c r="W4" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>162.3882686062625</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>88.95025058797899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464124</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>165.577887163712</v>
@@ -1074,7 +1074,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>117.7190139355734</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>47.69974377518773</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>86.46444032337577</v>
       </c>
       <c r="D8" t="n">
         <v>0.4192906078700389</v>
@@ -1144,16 +1144,16 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.14197242058547</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>79.98073849391044</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>65.42520756919141</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>380.6192620936322</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>380.5236390056502</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>374.9195848336577</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>384.6971075540599</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>391.320402151637</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>379.1412954918838</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>282.2997066243469</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>108.4285586796278</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>194.4847134383974</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>228.9901810488726</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>320.8394733426718</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>354.4229920819708</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>371.1372580785247</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>371.4276005471785</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>160.3230035558916</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>89.68287966250476</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501634</v>
+        <v>58.920285367142</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>159.0281446646765</v>
       </c>
       <c r="T13" t="n">
-        <v>181.7209147615985</v>
+        <v>87.7424297304712</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>254.4704602051247</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>245.6471818356609</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>250.779262072002</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>210.4607177447011</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>196.9886358509106</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995121</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
         <v>375.1420595397581</v>
@@ -1627,7 +1627,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>103.7622202500681</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1824,13 +1824,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
-        <v>114.2671521969159</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1864,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>53.93705658496823</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>126.8293673775834</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U20" t="n">
         <v>224.990945096747</v>
@@ -2143,7 +2143,7 @@
         <v>316.8402373905461</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298454</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
         <v>367.138022126399</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>113.2692892302229</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>10.48500726426577</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2338,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975955</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967466</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
-        <v>126.3425274114717</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>33.12209635668132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
@@ -2535,13 +2535,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
         <v>192.9893998987849</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.4479524106874</v>
+        <v>385.8631883228111</v>
       </c>
       <c r="C26" t="n">
-        <v>390.3523293227054</v>
+        <v>385.7675652348291</v>
       </c>
       <c r="D26" t="n">
-        <v>384.7482751507129</v>
+        <v>380.1635110628366</v>
       </c>
       <c r="E26" t="n">
-        <v>394.5257978711151</v>
+        <v>389.9410337832388</v>
       </c>
       <c r="F26" t="n">
-        <v>401.1490924686922</v>
+        <v>396.5643283808158</v>
       </c>
       <c r="G26" t="n">
-        <v>388.969985808939</v>
+        <v>384.3852217210626</v>
       </c>
       <c r="H26" t="n">
-        <v>84.70950290368894</v>
+        <v>287.5436328535257</v>
       </c>
       <c r="I26" t="n">
-        <v>69.81722959894043</v>
+        <v>65.23246551106409</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>118.257248996683</v>
+        <v>113.6724849088067</v>
       </c>
       <c r="T26" t="n">
-        <v>204.3134037554526</v>
+        <v>199.7286396675763</v>
       </c>
       <c r="U26" t="n">
-        <v>238.8188713659279</v>
+        <v>234.2341072780515</v>
       </c>
       <c r="V26" t="n">
-        <v>330.668163659727</v>
+        <v>187.4359668522827</v>
       </c>
       <c r="W26" t="n">
-        <v>364.251682399026</v>
+        <v>359.6669183111496</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9659483955799</v>
+        <v>376.3811843077035</v>
       </c>
       <c r="Y26" t="n">
-        <v>381.2562908642337</v>
+        <v>376.6715267763573</v>
       </c>
     </row>
     <row r="27">
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>165.5669297850705</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>143.6306915232066</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>149.9068717065549</v>
+        <v>41.73192158762362</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>68.74897568419721</v>
+        <v>64.16421159632087</v>
       </c>
       <c r="S28" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.4822361759078</v>
+        <v>216.8974720880314</v>
       </c>
       <c r="U28" t="n">
-        <v>264.29915052218</v>
+        <v>259.7143864343036</v>
       </c>
       <c r="V28" t="n">
-        <v>255.4758721527161</v>
+        <v>250.8911080648398</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>256.0231883011809</v>
       </c>
       <c r="X28" t="n">
-        <v>15.53156396349583</v>
+        <v>215.70464397388</v>
       </c>
       <c r="Y28" t="n">
-        <v>206.8173261679658</v>
+        <v>202.2325620800895</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.4479524106874</v>
+        <v>389.8624242749368</v>
       </c>
       <c r="C29" t="n">
-        <v>390.3523293227054</v>
+        <v>389.7668011869548</v>
       </c>
       <c r="D29" t="n">
-        <v>384.7482751507129</v>
+        <v>384.1627470149622</v>
       </c>
       <c r="E29" t="n">
-        <v>394.5257978711151</v>
+        <v>393.9402697353644</v>
       </c>
       <c r="F29" t="n">
-        <v>193.7301984309789</v>
+        <v>400.5635643329415</v>
       </c>
       <c r="G29" t="n">
-        <v>388.969985808939</v>
+        <v>388.3844576731883</v>
       </c>
       <c r="H29" t="n">
-        <v>292.1283969414021</v>
+        <v>291.5428688056514</v>
       </c>
       <c r="I29" t="n">
-        <v>69.81722959894043</v>
+        <v>69.23170146318976</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>118.257248996683</v>
+        <v>117.6717208609323</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3134037554526</v>
+        <v>203.727875619702</v>
       </c>
       <c r="U29" t="n">
-        <v>238.8188713659279</v>
+        <v>238.2333432301772</v>
       </c>
       <c r="V29" t="n">
-        <v>330.668163659727</v>
+        <v>330.0826355239763</v>
       </c>
       <c r="W29" t="n">
-        <v>364.251682399026</v>
+        <v>363.6661542632753</v>
       </c>
       <c r="X29" t="n">
-        <v>380.9659483955799</v>
+        <v>380.3804202598292</v>
       </c>
       <c r="Y29" t="n">
-        <v>381.2562908642337</v>
+        <v>182.034790727031</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.70620570401159</v>
+        <v>169.5661657371961</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>99.51156997955997</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.74897568419721</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.8568349817317</v>
+        <v>46.5442722656374</v>
       </c>
       <c r="T31" t="n">
-        <v>221.4822361759078</v>
+        <v>220.8967080401571</v>
       </c>
       <c r="U31" t="n">
-        <v>264.29915052218</v>
+        <v>263.7136223864293</v>
       </c>
       <c r="V31" t="n">
-        <v>255.4758721527161</v>
+        <v>254.8903440169655</v>
       </c>
       <c r="W31" t="n">
-        <v>260.6079523890572</v>
+        <v>260.0224242533066</v>
       </c>
       <c r="X31" t="n">
-        <v>220.2894080617563</v>
+        <v>219.7038799260056</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>206.2317980322151</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.4479524106874</v>
+        <v>389.8624242749368</v>
       </c>
       <c r="C32" t="n">
-        <v>390.3523293227054</v>
+        <v>191.130829185503</v>
       </c>
       <c r="D32" t="n">
-        <v>384.7482751507129</v>
+        <v>384.1627470149622</v>
       </c>
       <c r="E32" t="n">
-        <v>394.5257978711151</v>
+        <v>393.9402697353644</v>
       </c>
       <c r="F32" t="n">
-        <v>401.1490924686922</v>
+        <v>400.5635643329415</v>
       </c>
       <c r="G32" t="n">
-        <v>388.969985808939</v>
+        <v>388.3844576731883</v>
       </c>
       <c r="H32" t="n">
-        <v>292.1283969414021</v>
+        <v>291.5428688056514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.81722959894043</v>
+        <v>69.23170146318976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>118.257248996683</v>
+        <v>117.6717208609323</v>
       </c>
       <c r="T32" t="n">
-        <v>204.3134037554526</v>
+        <v>203.727875619702</v>
       </c>
       <c r="U32" t="n">
-        <v>31.39997732821475</v>
+        <v>238.2333432301772</v>
       </c>
       <c r="V32" t="n">
-        <v>330.668163659727</v>
+        <v>330.0826355239763</v>
       </c>
       <c r="W32" t="n">
-        <v>364.251682399026</v>
+        <v>363.6661542632753</v>
       </c>
       <c r="X32" t="n">
-        <v>380.9659483955799</v>
+        <v>380.3804202598292</v>
       </c>
       <c r="Y32" t="n">
-        <v>381.2562908642337</v>
+        <v>380.670762728483</v>
       </c>
     </row>
     <row r="33">
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>170.1516938729468</v>
+        <v>169.5661657371961</v>
       </c>
       <c r="C34" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>142.2286827731619</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.5442722656374</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>220.8967080401571</v>
       </c>
       <c r="U34" t="n">
-        <v>227.6958469767712</v>
+        <v>263.7136223864293</v>
       </c>
       <c r="V34" t="n">
-        <v>255.4758721527161</v>
+        <v>254.8903440169655</v>
       </c>
       <c r="W34" t="n">
-        <v>260.6079523890572</v>
+        <v>260.0224242533066</v>
       </c>
       <c r="X34" t="n">
-        <v>220.2894080617563</v>
+        <v>219.7038799260056</v>
       </c>
       <c r="Y34" t="n">
-        <v>206.8173261679658</v>
+        <v>206.2317980322151</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.4479524106874</v>
+        <v>389.8624242749368</v>
       </c>
       <c r="C35" t="n">
-        <v>390.3523293227054</v>
+        <v>389.7668011869548</v>
       </c>
       <c r="D35" t="n">
-        <v>384.7482751507129</v>
+        <v>384.1627470149622</v>
       </c>
       <c r="E35" t="n">
-        <v>394.5257978711151</v>
+        <v>393.9402697353644</v>
       </c>
       <c r="F35" t="n">
-        <v>401.1490924686922</v>
+        <v>400.5635643329415</v>
       </c>
       <c r="G35" t="n">
-        <v>388.969985808939</v>
+        <v>388.3844576731883</v>
       </c>
       <c r="H35" t="n">
-        <v>292.1283969414021</v>
+        <v>291.5428688056514</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>69.23170146318976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>118.257248996683</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>66.71173931667924</v>
+        <v>122.7636244791825</v>
       </c>
       <c r="U35" t="n">
-        <v>238.8188713659279</v>
+        <v>238.2333432301772</v>
       </c>
       <c r="V35" t="n">
-        <v>330.668163659727</v>
+        <v>330.0826355239763</v>
       </c>
       <c r="W35" t="n">
-        <v>364.251682399026</v>
+        <v>363.6661542632753</v>
       </c>
       <c r="X35" t="n">
-        <v>380.9659483955799</v>
+        <v>380.3804202598292</v>
       </c>
       <c r="Y35" t="n">
-        <v>381.2562908642337</v>
+        <v>380.670762728483</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>170.1516938729468</v>
+        <v>169.5661657371961</v>
       </c>
       <c r="C37" t="n">
-        <v>153.7114232567435</v>
+        <v>153.1258951209929</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2286827731619</v>
+        <v>141.6431546374113</v>
       </c>
       <c r="E37" t="n">
-        <v>143.6306915232066</v>
+        <v>24.10450362741502</v>
       </c>
       <c r="F37" t="n">
-        <v>147.3137991733575</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.9068717065549</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>132.4403651854408</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>99.51156997955997</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.271306845981</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>242.6072360274307</v>
+        <v>263.7136223864293</v>
       </c>
       <c r="V37" t="n">
-        <v>255.4758721527161</v>
+        <v>254.8903440169655</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>260.0224242533066</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>206.2317980322151</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.4479524106874</v>
+        <v>389.8624242749368</v>
       </c>
       <c r="C38" t="n">
-        <v>390.3523293227054</v>
+        <v>389.7668011869548</v>
       </c>
       <c r="D38" t="n">
-        <v>384.7482751507129</v>
+        <v>384.1627470149622</v>
       </c>
       <c r="E38" t="n">
-        <v>394.5257978711151</v>
+        <v>393.9402697353644</v>
       </c>
       <c r="F38" t="n">
-        <v>401.1490924686922</v>
+        <v>400.5635643329415</v>
       </c>
       <c r="G38" t="n">
-        <v>388.969985808939</v>
+        <v>388.3844576731883</v>
       </c>
       <c r="H38" t="n">
-        <v>154.5267325026294</v>
+        <v>92.90689680419938</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>69.23170146318976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>118.257248996683</v>
+        <v>117.6717208609323</v>
       </c>
       <c r="T38" t="n">
-        <v>204.3134037554526</v>
+        <v>203.727875619702</v>
       </c>
       <c r="U38" t="n">
-        <v>238.8188713659279</v>
+        <v>238.2333432301772</v>
       </c>
       <c r="V38" t="n">
-        <v>330.668163659727</v>
+        <v>330.0826355239763</v>
       </c>
       <c r="W38" t="n">
-        <v>364.251682399026</v>
+        <v>363.6661542632753</v>
       </c>
       <c r="X38" t="n">
-        <v>380.9659483955799</v>
+        <v>380.3804202598292</v>
       </c>
       <c r="Y38" t="n">
-        <v>381.2562908642337</v>
+        <v>380.670762728483</v>
       </c>
     </row>
     <row r="39">
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>153.1258951209929</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>147.3137991733575</v>
+        <v>146.7282710376068</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>60.69246100817792</v>
+        <v>131.8548370496901</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.9260418438093</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.4822361759078</v>
+        <v>112.6038990231065</v>
       </c>
       <c r="U40" t="n">
-        <v>264.29915052218</v>
+        <v>263.7136223864293</v>
       </c>
       <c r="V40" t="n">
-        <v>255.4758721527161</v>
+        <v>254.8903440169655</v>
       </c>
       <c r="W40" t="n">
-        <v>260.6079523890572</v>
+        <v>260.0224242533066</v>
       </c>
       <c r="X40" t="n">
-        <v>220.2894080617563</v>
+        <v>219.7038799260056</v>
       </c>
       <c r="Y40" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>282.1353944293379</v>
+        <v>371.26328835217</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3903,22 +3903,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>184.5278504388888</v>
@@ -3954,19 +3954,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>98.94574135710778</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>42.53944252214013</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>354.2586798869624</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4033,13 +4033,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>218.1247287958589</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4137,19 +4137,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>83.3189300341857</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>91.04473440253321</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>570.6426643811657</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C2" t="n">
-        <v>564.5584777348398</v>
+        <v>1671.948915169287</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>536.8451324196967</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="L2" t="n">
-        <v>733.4074053521598</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1767.09327468481</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>723.2252779860053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>576.8234400052511</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="3">
@@ -4415,22 +4415,22 @@
         <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.22713412386</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1207.22713412386</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1724.070068790185</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1724.070068790185</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2073.914533474168</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.3744376030463</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="C4" t="n">
-        <v>795.3744376030463</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="D4" t="n">
-        <v>635.8797929259563</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="E4" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1145.223475107064</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1145.223475107064</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1074.444102094172</v>
+        <v>708.7860674555877</v>
       </c>
       <c r="W4" t="n">
-        <v>795.3744376030463</v>
+        <v>429.716402964462</v>
       </c>
       <c r="X4" t="n">
-        <v>795.3744376030463</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="Y4" t="n">
-        <v>795.3744376030463</v>
+        <v>191.3725408241454</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1199.239803110925</v>
+        <v>1782.763876502378</v>
       </c>
       <c r="C5" t="n">
-        <v>1193.155616464599</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.732090598063</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.432279155364</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1952.973206274203</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="U5" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="V5" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="W5" t="n">
-        <v>1695.912714533713</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="X5" t="n">
-        <v>1295.269316702666</v>
+        <v>1788.944652126463</v>
       </c>
       <c r="Y5" t="n">
-        <v>1205.42057873501</v>
+        <v>1788.944652126463</v>
       </c>
     </row>
     <row r="6">
@@ -4625,7 +4625,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
         <v>469.7036984844747</v>
@@ -4634,40 +4634,40 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>537.7254774811266</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147452</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>799.0947483607745</v>
+        <v>690.627119468566</v>
       </c>
       <c r="C7" t="n">
-        <v>799.0947483607745</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="D7" t="n">
-        <v>639.6001036836846</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.772214130362</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.772214130362</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U7" t="n">
-        <v>1265.864119245944</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V7" t="n">
-        <v>1265.864119245944</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="W7" t="n">
-        <v>986.7944547548188</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="X7" t="n">
-        <v>986.7944547548188</v>
+        <v>915.3628180798013</v>
       </c>
       <c r="Y7" t="n">
-        <v>986.7944547548188</v>
+        <v>690.627119468566</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>570.6426643811657</v>
+        <v>876.4530309326553</v>
       </c>
       <c r="C8" t="n">
-        <v>564.5584777348398</v>
+        <v>789.115212424195</v>
       </c>
       <c r="D8" t="n">
-        <v>564.1349518683044</v>
+        <v>788.6916865576595</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8351404256051</v>
+        <v>778.3918751149603</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>497.1688317915616</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q8" t="n">
         <v>2047.697635790537</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>997.1688666927112</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>997.1688666927112</v>
+        <v>1687.610883649055</v>
       </c>
       <c r="Y8" t="n">
-        <v>980.8638440456551</v>
+        <v>1286.674210597145</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
         <v>469.7036984844747</v>
@@ -4871,37 +4871,37 @@
         <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
         <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960218</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960218</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949009</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949009</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N9" t="n">
-        <v>1531.257211227552</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O9" t="n">
-        <v>2048.100145893877</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>283.4645255026063</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="C10" t="n">
-        <v>283.4645255026063</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="D10" t="n">
-        <v>283.4645255026063</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="E10" t="n">
-        <v>122.5537103709257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="F10" t="n">
-        <v>122.5537103709257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5537103709257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>122.5537103709257</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4992,22 +4992,22 @@
         <v>1299.499495805762</v>
       </c>
       <c r="T10" t="n">
-        <v>1299.499495805762</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>1299.499495805762</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V10" t="n">
-        <v>1025.613750745284</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W10" t="n">
-        <v>746.5440862541582</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X10" t="n">
-        <v>508.2002241138416</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="Y10" t="n">
-        <v>283.4645255026063</v>
+        <v>158.1111315252759</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2308.295955934295</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1923.928643807376</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208991</v>
+        <v>1545.221992460247</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1156.639055536954</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>761.3659220504517</v>
       </c>
       <c r="G11" t="n">
-        <v>430.910136076462</v>
+        <v>378.3949165030944</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4552.661087885051</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4356.21188239172</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4124.90866921104</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206829</v>
+        <v>3800.828393107332</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3442.825370802311</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3067.939251531073</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2692.759857038974</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>3276.783860599928</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M12" t="n">
-        <v>3276.783860599928</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N12" t="n">
-        <v>4150.441952711546</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O12" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P12" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q12" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>309.490566594017</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="C13" t="n">
-        <v>309.490566594017</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="D13" t="n">
-        <v>179.7928327516118</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="E13" t="n">
-        <v>179.7928327516118</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="F13" t="n">
-        <v>179.7928327516118</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="G13" t="n">
-        <v>179.7928327516118</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516118</v>
+        <v>183.8324650264862</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>132.5709558123035</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>312.3679922510117</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>597.5098012475426</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>912.018566404506</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1218.102057515227</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1502.907376558171</v>
       </c>
       <c r="P13" t="n">
-        <v>1761.542230672484</v>
+        <v>1733.827525524253</v>
       </c>
       <c r="Q13" t="n">
-        <v>1856.27421278407</v>
+        <v>1824.600264043234</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1765.084824278445</v>
       </c>
       <c r="S13" t="n">
-        <v>1800.798405294154</v>
+        <v>1604.450334718165</v>
       </c>
       <c r="T13" t="n">
-        <v>1617.241925736984</v>
+        <v>1515.821617818699</v>
       </c>
       <c r="U13" t="n">
-        <v>1364.240689117793</v>
+        <v>1258.780748924634</v>
       </c>
       <c r="V13" t="n">
-        <v>1120.151854892</v>
+        <v>1010.652282423966</v>
       </c>
       <c r="W13" t="n">
-        <v>870.8791012355588</v>
+        <v>757.3398964926512</v>
       </c>
       <c r="X13" t="n">
-        <v>662.332149929927</v>
+        <v>544.753312912145</v>
       </c>
       <c r="Y13" t="n">
-        <v>467.3933621533765</v>
+        <v>345.7748928607201</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K14" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5357,25 +5357,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>286.056555253256</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
         <v>2139.732893541123</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.1875340095646</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="C16" t="n">
-        <v>571.8910724059659</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="D16" t="n">
-        <v>571.8910724059659</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059659</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512421</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>284.6031562365291</v>
       </c>
       <c r="H16" t="n">
         <v>179.7928327516118</v>
@@ -5439,7 +5439,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
         <v>609.3875320253558</v>
@@ -5472,16 +5472,16 @@
         <v>1181.450483200945</v>
       </c>
       <c r="V16" t="n">
-        <v>1181.450483200945</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W16" t="n">
-        <v>1181.450483200945</v>
+        <v>688.0888953187113</v>
       </c>
       <c r="X16" t="n">
-        <v>1066.029117345475</v>
+        <v>479.5419440130795</v>
       </c>
       <c r="Y16" t="n">
-        <v>871.0903295689242</v>
+        <v>284.6031562365291</v>
       </c>
     </row>
     <row r="17">
@@ -5503,7 +5503,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
         <v>430.910136076462</v>
@@ -5515,10 +5515,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5560,7 +5560,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>973.9991721489654</v>
+        <v>705.4317876121979</v>
       </c>
       <c r="C19" t="n">
-        <v>832.7027105453667</v>
+        <v>564.1353260085993</v>
       </c>
       <c r="D19" t="n">
-        <v>703.0049767029616</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="E19" t="n">
-        <v>571.8910724059659</v>
+        <v>434.4375921661942</v>
       </c>
       <c r="F19" t="n">
-        <v>437.0568573512421</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="G19" t="n">
         <v>299.6033771114703</v>
@@ -5676,7 +5676,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
         <v>609.3875320253558</v>
@@ -5706,19 +5706,19 @@
         <v>1644.203548008749</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.721672670398</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V19" t="n">
-        <v>1589.721672670398</v>
+        <v>1516.09307591018</v>
       </c>
       <c r="W19" t="n">
-        <v>1340.448919013957</v>
+        <v>1266.82032225374</v>
       </c>
       <c r="X19" t="n">
-        <v>1131.901967708325</v>
+        <v>1058.273370948108</v>
       </c>
       <c r="Y19" t="n">
-        <v>1131.901967708325</v>
+        <v>863.3345831715575</v>
       </c>
     </row>
     <row r="20">
@@ -5752,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5767,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5782,10 +5782,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V20" t="n">
         <v>3816.98692220683</v>
@@ -5834,25 +5834,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>549.0499539559215</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.216283632599</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="O21" t="n">
-        <v>2110.173374178493</v>
+        <v>1640.177868931084</v>
       </c>
       <c r="P21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3648.79593959904</v>
+        <v>338.7710254524901</v>
       </c>
       <c r="C22" t="n">
-        <v>3507.499477995441</v>
+        <v>338.7710254524901</v>
       </c>
       <c r="D22" t="n">
-        <v>3377.801744153036</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E22" t="n">
-        <v>3377.801744153036</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3242.967529098312</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3105.51404885854</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>2985.703504498682</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>4505.590027245735</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T22" t="n">
-        <v>4505.590027245735</v>
+        <v>1646.522384595457</v>
       </c>
       <c r="U22" t="n">
-        <v>4494.999110817183</v>
+        <v>1393.521147976266</v>
       </c>
       <c r="V22" t="n">
-        <v>4250.91027659139</v>
+        <v>1149.432313750473</v>
       </c>
       <c r="W22" t="n">
-        <v>4001.63752293495</v>
+        <v>900.1595600940318</v>
       </c>
       <c r="X22" t="n">
-        <v>4001.63752293495</v>
+        <v>691.6126087884001</v>
       </c>
       <c r="Y22" t="n">
-        <v>3806.698735158399</v>
+        <v>496.6738210118497</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489443</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6019,10 +6019,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
         <v>3816.98692220683</v>
@@ -6071,25 +6071,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1771.84401836374</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2121.688483047723</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>493.1501075421606</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="C25" t="n">
-        <v>365.5313929851185</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="D25" t="n">
-        <v>365.5313929851185</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="E25" t="n">
-        <v>365.5313929851185</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="F25" t="n">
-        <v>230.6971779303946</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771696</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6150,7 +6150,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
         <v>609.3875320253558</v>
@@ -6186,13 +6186,13 @@
         <v>937.361648975152</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>688.0888953187113</v>
       </c>
       <c r="X25" t="n">
-        <v>688.0888953187111</v>
+        <v>479.5419440130795</v>
       </c>
       <c r="Y25" t="n">
-        <v>493.1501075421606</v>
+        <v>284.6031562365291</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2228.872195796475</v>
+        <v>2405.968706324333</v>
       </c>
       <c r="C26" t="n">
-        <v>1834.576913652328</v>
+        <v>2016.304499016424</v>
       </c>
       <c r="D26" t="n">
-        <v>1445.942292287972</v>
+        <v>1632.300952488307</v>
       </c>
       <c r="E26" t="n">
-        <v>1047.431385347452</v>
+        <v>1238.421120384025</v>
       </c>
       <c r="F26" t="n">
-        <v>642.2302818437222</v>
+        <v>837.8510917165344</v>
       </c>
       <c r="G26" t="n">
-        <v>249.3313062791373</v>
+        <v>449.5831909881882</v>
       </c>
       <c r="H26" t="n">
-        <v>163.7661518309667</v>
+        <v>159.1350769947279</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6253,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4542.733117867823</v>
+        <v>4547.364192704063</v>
       </c>
       <c r="T26" t="n">
-        <v>4336.355942357265</v>
+        <v>4345.618092029743</v>
       </c>
       <c r="U26" t="n">
-        <v>4095.124759159358</v>
+        <v>4109.017983668075</v>
       </c>
       <c r="V26" t="n">
-        <v>3761.116513038422</v>
+        <v>3919.688724221324</v>
       </c>
       <c r="W26" t="n">
-        <v>3393.185520716173</v>
+        <v>3556.388806735315</v>
       </c>
       <c r="X26" t="n">
-        <v>3008.371431427709</v>
+        <v>3176.205792283089</v>
       </c>
       <c r="Y26" t="n">
-        <v>2623.264066918382</v>
+        <v>2795.729502610001</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>1210.13812587521</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M27" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N27" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O27" t="n">
-        <v>2053.115206569777</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3448.839470745083</v>
+        <v>135.3971538397376</v>
       </c>
       <c r="C28" t="n">
-        <v>3448.839470745083</v>
+        <v>135.3971538397376</v>
       </c>
       <c r="D28" t="n">
-        <v>3305.174134610576</v>
+        <v>135.3971538397376</v>
       </c>
       <c r="E28" t="n">
-        <v>3160.092628021479</v>
+        <v>135.3971538397376</v>
       </c>
       <c r="F28" t="n">
-        <v>3160.092628021479</v>
+        <v>135.3971538397376</v>
       </c>
       <c r="G28" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3038.268400197401</v>
+        <v>127.3794688454165</v>
       </c>
       <c r="K28" t="n">
-        <v>3208.335033222225</v>
+        <v>301.9850183172376</v>
       </c>
       <c r="L28" t="n">
-        <v>3483.746438804871</v>
+        <v>581.9353403468813</v>
       </c>
       <c r="M28" t="n">
-        <v>3788.52480054795</v>
+        <v>891.2526185369577</v>
       </c>
       <c r="N28" t="n">
-        <v>4084.877888244785</v>
+        <v>1192.144622680791</v>
       </c>
       <c r="O28" t="n">
-        <v>4359.952803873845</v>
+        <v>1471.758454756849</v>
       </c>
       <c r="P28" t="n">
-        <v>4581.142549426043</v>
+        <v>1697.487116756044</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1783.068368308138</v>
       </c>
       <c r="R28" t="n">
-        <v>4592.741474749122</v>
+        <v>1718.256033362359</v>
       </c>
       <c r="S28" t="n">
-        <v>4422.179015171615</v>
+        <v>1718.256033362359</v>
       </c>
       <c r="T28" t="n">
-        <v>4198.4595846909</v>
+        <v>1499.167677717883</v>
       </c>
       <c r="U28" t="n">
-        <v>3931.490745779607</v>
+        <v>1236.829913642829</v>
       </c>
       <c r="V28" t="n">
-        <v>3673.434309261711</v>
+        <v>983.4045519611727</v>
       </c>
       <c r="W28" t="n">
-        <v>3673.434309261711</v>
+        <v>724.7952708488688</v>
       </c>
       <c r="X28" t="n">
-        <v>3657.745860813736</v>
+        <v>506.9117920873738</v>
       </c>
       <c r="Y28" t="n">
-        <v>3448.839470745083</v>
+        <v>302.6364768549603</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2228.872195796475</v>
+        <v>2434.246132248454</v>
       </c>
       <c r="C29" t="n">
-        <v>1834.576913652328</v>
+        <v>2040.542292665671</v>
       </c>
       <c r="D29" t="n">
-        <v>1445.942292287972</v>
+        <v>1652.499113862679</v>
       </c>
       <c r="E29" t="n">
-        <v>1047.431385347452</v>
+        <v>1254.579649483523</v>
       </c>
       <c r="F29" t="n">
-        <v>851.7443162252507</v>
+        <v>849.9699885411577</v>
       </c>
       <c r="G29" t="n">
-        <v>458.8453406606658</v>
+        <v>457.6624555379371</v>
       </c>
       <c r="H29" t="n">
-        <v>163.7661518309667</v>
+        <v>163.1747092696024</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6466,7 +6466,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4542.733117867823</v>
+        <v>4543.324560429188</v>
       </c>
       <c r="T29" t="n">
-        <v>4336.355942357265</v>
+        <v>4337.538827479994</v>
       </c>
       <c r="U29" t="n">
-        <v>4095.124759159358</v>
+        <v>4096.899086843452</v>
       </c>
       <c r="V29" t="n">
-        <v>3761.116513038422</v>
+        <v>3763.48228328388</v>
       </c>
       <c r="W29" t="n">
-        <v>3393.185520716173</v>
+        <v>3396.142733522996</v>
       </c>
       <c r="X29" t="n">
-        <v>3008.371431427709</v>
+        <v>3011.920086795896</v>
       </c>
       <c r="Y29" t="n">
-        <v>2623.264066918382</v>
+        <v>2828.046560808996</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>354.5244442569915</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>354.5244442569915</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>354.5244442569915</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>1789.888428857139</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3109.188282842696</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3038.268400197401</v>
+        <v>123.420225252812</v>
       </c>
       <c r="K31" t="n">
-        <v>3208.335033222225</v>
+        <v>294.0665311320287</v>
       </c>
       <c r="L31" t="n">
-        <v>3483.746438804871</v>
+        <v>570.0576095690681</v>
       </c>
       <c r="M31" t="n">
-        <v>3788.52480054795</v>
+        <v>875.41564416654</v>
       </c>
       <c r="N31" t="n">
-        <v>4084.877888244785</v>
+        <v>1172.348404717769</v>
       </c>
       <c r="O31" t="n">
-        <v>4359.952803873845</v>
+        <v>1448.002993201222</v>
       </c>
       <c r="P31" t="n">
-        <v>4581.142549426043</v>
+        <v>1669.772411607813</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="R31" t="n">
-        <v>4592.741474749122</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="S31" t="n">
-        <v>4422.179015171615</v>
+        <v>1704.380003137366</v>
       </c>
       <c r="T31" t="n">
-        <v>4198.4595846909</v>
+        <v>1481.252015218015</v>
       </c>
       <c r="U31" t="n">
-        <v>3931.490745779607</v>
+        <v>1214.874618868086</v>
       </c>
       <c r="V31" t="n">
-        <v>3673.434309261711</v>
+        <v>957.4096249115556</v>
       </c>
       <c r="W31" t="n">
-        <v>3410.193953313169</v>
+        <v>694.7607115243773</v>
       </c>
       <c r="X31" t="n">
-        <v>3187.679399715435</v>
+        <v>472.8376004880079</v>
       </c>
       <c r="Y31" t="n">
-        <v>3187.679399715435</v>
+        <v>264.5226529807199</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2438.386230178004</v>
+        <v>2233.603736287391</v>
       </c>
       <c r="C32" t="n">
-        <v>2044.090948033857</v>
+        <v>2040.542292665671</v>
       </c>
       <c r="D32" t="n">
-        <v>1655.4563266695</v>
+        <v>1652.499113862679</v>
       </c>
       <c r="E32" t="n">
-        <v>1256.94541972898</v>
+        <v>1254.579649483523</v>
       </c>
       <c r="F32" t="n">
-        <v>851.7443162252507</v>
+        <v>849.9699885411577</v>
       </c>
       <c r="G32" t="n">
-        <v>458.8453406606658</v>
+        <v>457.6624555379371</v>
       </c>
       <c r="H32" t="n">
-        <v>163.7661518309667</v>
+        <v>163.1747092696024</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4542.733117867823</v>
+        <v>4543.324560429188</v>
       </c>
       <c r="T32" t="n">
-        <v>4336.355942357265</v>
+        <v>4337.538827479994</v>
       </c>
       <c r="U32" t="n">
-        <v>4304.638793540887</v>
+        <v>4096.899086843452</v>
       </c>
       <c r="V32" t="n">
-        <v>3970.63054741995</v>
+        <v>3763.48228328388</v>
       </c>
       <c r="W32" t="n">
-        <v>3602.699555097702</v>
+        <v>3396.142733522996</v>
       </c>
       <c r="X32" t="n">
-        <v>3217.885465809237</v>
+        <v>3011.920086795896</v>
       </c>
       <c r="Y32" t="n">
-        <v>2832.77810129991</v>
+        <v>2627.404164847933</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3307.600945519813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>3152.336881624112</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3038.268400197401</v>
+        <v>123.420225252812</v>
       </c>
       <c r="K34" t="n">
-        <v>3208.335033222225</v>
+        <v>294.0665311320287</v>
       </c>
       <c r="L34" t="n">
-        <v>3483.746438804871</v>
+        <v>570.0576095690681</v>
       </c>
       <c r="M34" t="n">
-        <v>3788.52480054795</v>
+        <v>875.41564416654</v>
       </c>
       <c r="N34" t="n">
-        <v>4084.877888244785</v>
+        <v>1172.348404717769</v>
       </c>
       <c r="O34" t="n">
-        <v>4359.952803873845</v>
+        <v>1448.002993201222</v>
       </c>
       <c r="P34" t="n">
-        <v>4581.142549426043</v>
+        <v>1669.772411607813</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="R34" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="S34" t="n">
-        <v>4662.18488453114</v>
+        <v>1704.380003137366</v>
       </c>
       <c r="T34" t="n">
-        <v>4662.18488453114</v>
+        <v>1481.252015218015</v>
       </c>
       <c r="U34" t="n">
-        <v>4432.189079504098</v>
+        <v>1214.874618868086</v>
       </c>
       <c r="V34" t="n">
-        <v>4174.132642986203</v>
+        <v>957.4096249115556</v>
       </c>
       <c r="W34" t="n">
-        <v>3910.89228703766</v>
+        <v>694.7607115243773</v>
       </c>
       <c r="X34" t="n">
-        <v>3688.377733439926</v>
+        <v>472.8376004880079</v>
       </c>
       <c r="Y34" t="n">
-        <v>3479.471343371274</v>
+        <v>264.5226529807199</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2367.86377603766</v>
+        <v>2434.246132248454</v>
       </c>
       <c r="C35" t="n">
-        <v>1973.568493893513</v>
+        <v>2040.542292665671</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.933872529157</v>
+        <v>1652.499113862679</v>
       </c>
       <c r="E35" t="n">
-        <v>1186.422965588636</v>
+        <v>1254.579649483523</v>
       </c>
       <c r="F35" t="n">
-        <v>781.2218620849068</v>
+        <v>849.9699885411577</v>
       </c>
       <c r="G35" t="n">
-        <v>388.3228865203219</v>
+        <v>457.6624555379371</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>163.1747092696024</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4542.733117867823</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T35" t="n">
-        <v>4475.34752259845</v>
+        <v>4538.181223441056</v>
       </c>
       <c r="U35" t="n">
-        <v>4234.116339400543</v>
+        <v>4297.541482804514</v>
       </c>
       <c r="V35" t="n">
-        <v>3900.108093279607</v>
+        <v>3964.124679244942</v>
       </c>
       <c r="W35" t="n">
-        <v>3532.177100957358</v>
+        <v>3596.785129484058</v>
       </c>
       <c r="X35" t="n">
-        <v>3147.363011668894</v>
+        <v>3212.562482756958</v>
       </c>
       <c r="Y35" t="n">
-        <v>2762.255647159567</v>
+        <v>2828.046560808996</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N36" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O36" t="n">
-        <v>1640.177868931084</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1071.772388193679</v>
+        <v>415.3381960601371</v>
       </c>
       <c r="C37" t="n">
-        <v>916.508324297978</v>
+        <v>260.6655747258009</v>
       </c>
       <c r="D37" t="n">
-        <v>772.842988163471</v>
+        <v>117.5916811526582</v>
       </c>
       <c r="E37" t="n">
-        <v>627.7614815743734</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>478.9596642275476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>327.5385816956741</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>193.7604350437137</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>122.8405523984189</v>
+        <v>123.420225252812</v>
       </c>
       <c r="K37" t="n">
-        <v>292.9071854232424</v>
+        <v>294.0665311320287</v>
       </c>
       <c r="L37" t="n">
-        <v>568.3185910058885</v>
+        <v>570.0576095690681</v>
       </c>
       <c r="M37" t="n">
-        <v>873.0969527489674</v>
+        <v>875.41564416654</v>
       </c>
       <c r="N37" t="n">
-        <v>1169.450040445803</v>
+        <v>1172.348404717769</v>
       </c>
       <c r="O37" t="n">
-        <v>1444.524956074863</v>
+        <v>1448.002993201222</v>
       </c>
       <c r="P37" t="n">
-        <v>1665.714701627061</v>
+        <v>1669.772411607813</v>
       </c>
       <c r="Q37" t="n">
-        <v>1746.757036732157</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="R37" t="n">
-        <v>1746.757036732157</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="S37" t="n">
-        <v>1746.757036732157</v>
+        <v>1581.42340255116</v>
       </c>
       <c r="T37" t="n">
-        <v>1746.757036732157</v>
+        <v>1581.42340255116</v>
       </c>
       <c r="U37" t="n">
-        <v>1501.699222563035</v>
+        <v>1315.046006201231</v>
       </c>
       <c r="V37" t="n">
-        <v>1243.64278604514</v>
+        <v>1057.581012244701</v>
       </c>
       <c r="W37" t="n">
-        <v>1243.64278604514</v>
+        <v>794.9320988575222</v>
       </c>
       <c r="X37" t="n">
-        <v>1243.64278604514</v>
+        <v>794.9320988575222</v>
       </c>
       <c r="Y37" t="n">
-        <v>1243.64278604514</v>
+        <v>586.6171513502342</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2228.872195796475</v>
+        <v>2233.603736287391</v>
       </c>
       <c r="C38" t="n">
-        <v>1834.576913652328</v>
+        <v>1839.899896704609</v>
       </c>
       <c r="D38" t="n">
-        <v>1445.942292287972</v>
+        <v>1451.856717901616</v>
       </c>
       <c r="E38" t="n">
-        <v>1047.431385347452</v>
+        <v>1053.93725352246</v>
       </c>
       <c r="F38" t="n">
-        <v>642.2302818437222</v>
+        <v>649.327592580095</v>
       </c>
       <c r="G38" t="n">
-        <v>249.3313062791373</v>
+        <v>257.0200595768745</v>
       </c>
       <c r="H38" t="n">
-        <v>93.2436976906228</v>
+        <v>163.1747092696024</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4542.733117867823</v>
+        <v>4543.324560429188</v>
       </c>
       <c r="T38" t="n">
-        <v>4336.355942357265</v>
+        <v>4337.538827479994</v>
       </c>
       <c r="U38" t="n">
-        <v>4095.124759159358</v>
+        <v>4096.899086843452</v>
       </c>
       <c r="V38" t="n">
-        <v>3761.116513038422</v>
+        <v>3763.48228328388</v>
       </c>
       <c r="W38" t="n">
-        <v>3393.185520716173</v>
+        <v>3396.142733522996</v>
       </c>
       <c r="X38" t="n">
-        <v>3008.371431427709</v>
+        <v>3011.920086795896</v>
       </c>
       <c r="Y38" t="n">
-        <v>2623.264066918382</v>
+        <v>2627.404164847933</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L39" t="n">
-        <v>549.0499539559215</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>1392.027034650488</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3218.778879006308</v>
+        <v>629.2386926927431</v>
       </c>
       <c r="C40" t="n">
-        <v>3218.778879006308</v>
+        <v>474.5660713584069</v>
       </c>
       <c r="D40" t="n">
-        <v>3218.778879006308</v>
+        <v>474.5660713584069</v>
       </c>
       <c r="E40" t="n">
-        <v>3218.778879006308</v>
+        <v>474.5660713584069</v>
       </c>
       <c r="F40" t="n">
-        <v>3069.977061659482</v>
+        <v>326.3556965729455</v>
       </c>
       <c r="G40" t="n">
-        <v>3069.977061659482</v>
+        <v>326.3556965729455</v>
       </c>
       <c r="H40" t="n">
-        <v>3008.671545489605</v>
+        <v>193.1689924823494</v>
       </c>
       <c r="I40" t="n">
-        <v>3008.671545489605</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>3038.268400197401</v>
+        <v>123.420225252812</v>
       </c>
       <c r="K40" t="n">
-        <v>3208.335033222225</v>
+        <v>294.0665311320287</v>
       </c>
       <c r="L40" t="n">
-        <v>3483.746438804871</v>
+        <v>570.0576095690681</v>
       </c>
       <c r="M40" t="n">
-        <v>3788.52480054795</v>
+        <v>875.41564416654</v>
       </c>
       <c r="N40" t="n">
-        <v>4084.877888244785</v>
+        <v>1172.348404717769</v>
       </c>
       <c r="O40" t="n">
-        <v>4359.952803873845</v>
+        <v>1448.002993201222</v>
       </c>
       <c r="P40" t="n">
-        <v>4581.142549426043</v>
+        <v>1669.772411607813</v>
       </c>
       <c r="Q40" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="R40" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="S40" t="n">
-        <v>4662.18488453114</v>
+        <v>1751.394419567303</v>
       </c>
       <c r="T40" t="n">
-        <v>4438.465454050424</v>
+        <v>1637.653107422751</v>
       </c>
       <c r="U40" t="n">
-        <v>4171.496615139132</v>
+        <v>1371.275711072822</v>
       </c>
       <c r="V40" t="n">
-        <v>3913.440178621237</v>
+        <v>1113.810717116291</v>
       </c>
       <c r="W40" t="n">
-        <v>3650.199822672694</v>
+        <v>851.1618037291125</v>
       </c>
       <c r="X40" t="n">
-        <v>3427.68526907496</v>
+        <v>629.2386926927431</v>
       </c>
       <c r="Y40" t="n">
-        <v>3218.778879006308</v>
+        <v>629.2386926927431</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C41" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D41" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E41" t="n">
-        <v>873.3089913790386</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F41" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
         <v>179.5954603735497</v>
@@ -7456,7 +7456,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L42" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U43" t="n">
-        <v>4051.026465773143</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V43" t="n">
-        <v>4051.026465773143</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W43" t="n">
-        <v>4051.026465773143</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X43" t="n">
-        <v>4051.026465773143</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>4051.026465773143</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2549.191389976085</v>
+        <v>2485.998028320643</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>2075.873437633913</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1671.409507726974</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1257.069292243871</v>
       </c>
       <c r="F44" t="n">
         <v>899.2322418529996</v>
@@ -7681,19 +7681,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>4084.369316387393</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>3734.531761723874</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3350.771460859042</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="X44" t="n">
-        <v>2950.128063027995</v>
+        <v>3297.155881037042</v>
       </c>
       <c r="Y44" t="n">
-        <v>2549.191389976085</v>
+        <v>2896.219207985132</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L45" t="n">
-        <v>741.8628115185547</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M45" t="n">
-        <v>741.8628115185547</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>874.0699105066985</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1032.970092797216</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="C46" t="n">
-        <v>861.8767203589325</v>
+        <v>369.0843882633866</v>
       </c>
       <c r="D46" t="n">
-        <v>702.3820756818425</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>541.471260550162</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>376.8401346607533</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
         <v>209.5897435862967</v>
@@ -7830,28 +7830,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1537.369875986873</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V46" t="n">
-        <v>1537.369875986873</v>
+        <v>1298.933319900109</v>
       </c>
       <c r="W46" t="n">
-        <v>1537.369875986873</v>
+        <v>1019.863655408983</v>
       </c>
       <c r="X46" t="n">
-        <v>1445.405497802496</v>
+        <v>781.5197932686664</v>
       </c>
       <c r="Y46" t="n">
-        <v>1220.66979919126</v>
+        <v>556.7840946574311</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>208.9223179663055</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>272.0504334731807</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8063,7 +8063,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,16 +8072,16 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>73.48479305079316</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
@@ -8236,7 +8236,7 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>558.5343765177352</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>560.9496989519245</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276487</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>64.9612675518901</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8695,7 +8695,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024794</v>
       </c>
       <c r="M11" t="n">
         <v>877.4504173780091</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>544.8054309767314</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8792,7 +8792,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -9005,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>336.4139358902908</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9242,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>55.82578278461539</v>
@@ -9254,19 +9254,19 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>128.0437830991482</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>919.0179688247368</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>558.8606699624394</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,28 +9719,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>77.22687637146549</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
@@ -9971,13 +9971,13 @@
         <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>141.7522481051737</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>319.7457288112504</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10211,7 +10211,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,28 +10664,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>558.8606699624394</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10843,10 +10843,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K39" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>808.4518367176235</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11138,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>745.8914891781321</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N45" t="n">
-        <v>186.7359176241983</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>59.98853928188522</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>143.8827329396883</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>132.3999924561067</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>133.8020012061514</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>137.4851088563023</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>140.0781813894997</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>122.6116748683856</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>25.93339514512846</v>
+        <v>123.9111161283814</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
@@ -23664,13 +23664,13 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>14.85021866619175</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>92.19432959565953</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,13 +23898,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,10 +23946,10 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>196.5341676680309</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>114.8185785059519</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>15.13146727375813</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037909</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501633</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>239.9862169887333</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>13.54096957609094</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
@@ -24375,16 +24375,16 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>52.56154735369777</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>207.4188940377131</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>138.6474327195679</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>170.1516938729468</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>153.7114232567435</v>
+        <v>149.1266591688672</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>137.6439186852856</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.0459274353302</v>
       </c>
       <c r="F28" t="n">
-        <v>147.3137991733575</v>
+        <v>142.7290350854812</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>103.5901860310549</v>
       </c>
       <c r="H28" t="n">
-        <v>132.4403651854408</v>
+        <v>127.8556010975644</v>
       </c>
       <c r="I28" t="n">
-        <v>99.51156997955997</v>
+        <v>94.92680589168363</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>164.2720708938554</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>204.7578440982605</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>207.4188940377133</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>198.635972001452</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>92.44548816893523</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>153.7114232567435</v>
+        <v>153.1258951209929</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2286827731619</v>
+        <v>141.6431546374113</v>
       </c>
       <c r="E31" t="n">
-        <v>143.6306915232066</v>
+        <v>143.0451633874559</v>
       </c>
       <c r="F31" t="n">
-        <v>147.3137991733575</v>
+        <v>146.7282710376068</v>
       </c>
       <c r="G31" t="n">
-        <v>149.9068717065549</v>
+        <v>149.3213435708042</v>
       </c>
       <c r="H31" t="n">
-        <v>132.4403651854408</v>
+        <v>131.8548370496901</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.9260418438093</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.16344754844654</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>121.7270345803436</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>198.6359720014518</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>207.4188940377131</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>153.1258951209929</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>141.6431546374113</v>
       </c>
       <c r="E34" t="n">
-        <v>143.6306915232066</v>
+        <v>143.0451633874559</v>
       </c>
       <c r="F34" t="n">
-        <v>147.3137991733575</v>
+        <v>146.7282710376068</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9068717065549</v>
+        <v>149.3213435708042</v>
       </c>
       <c r="H34" t="n">
-        <v>132.4403651854408</v>
+        <v>131.8548370496901</v>
       </c>
       <c r="I34" t="n">
-        <v>99.51156997955997</v>
+        <v>98.9260418438093</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.74897568419721</v>
+        <v>68.16344754844654</v>
       </c>
       <c r="S34" t="n">
-        <v>168.8568349817317</v>
+        <v>121.7270345803436</v>
       </c>
       <c r="T34" t="n">
-        <v>221.4822361759078</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>36.60330354540881</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>69.81722959894043</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>117.6717208609323</v>
       </c>
       <c r="T35" t="n">
-        <v>137.6016644387734</v>
+        <v>80.96425114051944</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.9406597600409</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>146.7282710376068</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>149.3213435708042</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.8548370496901</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.9260418438093</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.74897568419721</v>
+        <v>68.16344754844654</v>
       </c>
       <c r="S37" t="n">
-        <v>168.8568349817317</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.4822361759078</v>
+        <v>220.8967080401571</v>
       </c>
       <c r="U37" t="n">
-        <v>21.69191449474928</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>260.6079523890572</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>220.2894080617563</v>
+        <v>219.7038799260056</v>
       </c>
       <c r="Y37" t="n">
-        <v>206.8173261679658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>137.6016644387727</v>
+        <v>198.635972001452</v>
       </c>
       <c r="I38" t="n">
-        <v>69.81722959894043</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>170.1516938729468</v>
+        <v>169.5661657371961</v>
       </c>
       <c r="C40" t="n">
-        <v>153.7114232567435</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>142.2286827731619</v>
+        <v>141.6431546374113</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6306915232066</v>
+        <v>143.0451633874559</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>149.9068717065549</v>
+        <v>149.3213435708042</v>
       </c>
       <c r="H40" t="n">
-        <v>71.74790417726287</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>99.51156997955997</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.74897568419721</v>
+        <v>68.16344754844654</v>
       </c>
       <c r="S40" t="n">
-        <v>168.8568349817317</v>
+        <v>168.271306845981</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>108.2928090170506</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>206.2317980322151</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>134.6847134965114</v>
+        <v>45.55681957367926</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>181.0244246222293</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>193.4209809967733</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>62.5614280388869</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>36.36515802722613</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
         <v>148.1113806425979</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>187.8279575756875</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>144.9156891163802</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>672406.3957830793</v>
+        <v>665872.7809801331</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>672406.3957830793</v>
+        <v>672406.3957830794</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>672406.3957830793</v>
+        <v>672406.3957830794</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>649815.4947090003</v>
+        <v>657305.6960552463</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>649815.4947090006</v>
+        <v>650772.0812523001</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>649815.4947090006</v>
+        <v>650772.0812523001</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>649815.4947090005</v>
+        <v>650772.0812523001</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>649815.4947090006</v>
+        <v>650772.0812523001</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>624213.509781439</v>
+        <v>624213.5097814393</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>537511.8970071076</v>
+      </c>
+      <c r="C2" t="n">
         <v>537511.8970071079</v>
       </c>
-      <c r="C2" t="n">
-        <v>537511.8970071076</v>
-      </c>
       <c r="D2" t="n">
-        <v>537511.8970071076</v>
+        <v>537511.8970071079</v>
       </c>
       <c r="E2" t="n">
-        <v>520903.1457046387</v>
+        <v>515075.8676371454</v>
       </c>
       <c r="F2" t="n">
-        <v>520903.1457046383</v>
+        <v>520903.1457046384</v>
       </c>
       <c r="G2" t="n">
+        <v>520903.1457046386</v>
+      </c>
+      <c r="H2" t="n">
+        <v>520903.1457046382</v>
+      </c>
+      <c r="I2" t="n">
         <v>520903.1457046384</v>
       </c>
-      <c r="H2" t="n">
-        <v>520903.1457046385</v>
-      </c>
-      <c r="I2" t="n">
-        <v>520903.1457046386</v>
-      </c>
       <c r="J2" t="n">
-        <v>500754.5042061349</v>
+        <v>507434.9540554899</v>
       </c>
       <c r="K2" t="n">
-        <v>500754.5042061346</v>
+        <v>501607.6759879971</v>
       </c>
       <c r="L2" t="n">
-        <v>500754.5042061348</v>
+        <v>501607.6759879971</v>
       </c>
       <c r="M2" t="n">
-        <v>500754.5042061346</v>
+        <v>501607.6759879969</v>
       </c>
       <c r="N2" t="n">
-        <v>500754.5042061349</v>
+        <v>501607.675987997</v>
       </c>
       <c r="O2" t="n">
         <v>477920.3014329048</v>
       </c>
       <c r="P2" t="n">
-        <v>477920.3014329047</v>
+        <v>477920.3014329048</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>212529.5275188131</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3199.388761700538</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>149131.6131716207</v>
+        <v>149600.0356802212</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>213059.5462795911</v>
       </c>
       <c r="E4" t="n">
+        <v>114870.221398819</v>
+      </c>
+      <c r="F4" t="n">
         <v>118911.6321885296</v>
-      </c>
-      <c r="F4" t="n">
-        <v>118911.6321885295</v>
       </c>
       <c r="G4" t="n">
         <v>118911.6321885296</v>
@@ -26441,25 +26441,25 @@
         <v>118911.6321885296</v>
       </c>
       <c r="J4" t="n">
-        <v>104937.8804288</v>
+        <v>109570.994172232</v>
       </c>
       <c r="K4" t="n">
-        <v>104937.8804288</v>
+        <v>105529.5833825215</v>
       </c>
       <c r="L4" t="n">
-        <v>104937.8804288</v>
+        <v>105529.5833825215</v>
       </c>
       <c r="M4" t="n">
-        <v>104937.8804288</v>
+        <v>105529.5833825215</v>
       </c>
       <c r="N4" t="n">
-        <v>104937.8804288</v>
+        <v>105529.5833825215</v>
       </c>
       <c r="O4" t="n">
         <v>89101.60277166063</v>
       </c>
       <c r="P4" t="n">
-        <v>89101.60277166062</v>
+        <v>89101.60277166063</v>
       </c>
     </row>
     <row r="5">
@@ -26478,34 +26478,34 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73008.94500960558</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
-        <v>72182.65684334106</v>
+        <v>72568.09337544475</v>
       </c>
       <c r="K5" t="n">
-        <v>72182.65684334106</v>
+        <v>72231.88160818549</v>
       </c>
       <c r="L5" t="n">
-        <v>72182.65684334106</v>
+        <v>72231.88160818549</v>
       </c>
       <c r="M5" t="n">
-        <v>72182.65684334106</v>
+        <v>72231.88160818549</v>
       </c>
       <c r="N5" t="n">
-        <v>72182.65684334106</v>
+        <v>72231.88160818549</v>
       </c>
       <c r="O5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84127.7757559052</v>
+        <v>84127.77575590494</v>
       </c>
       <c r="C6" t="n">
-        <v>259083.285649019</v>
+        <v>259083.2856490193</v>
       </c>
       <c r="D6" t="n">
-        <v>259083.285649019</v>
+        <v>259083.2856490192</v>
       </c>
       <c r="E6" t="n">
-        <v>112917.4404587307</v>
+        <v>114599.18574212</v>
       </c>
       <c r="F6" t="n">
-        <v>328646.356739244</v>
+        <v>325396.6384281421</v>
       </c>
       <c r="G6" t="n">
-        <v>328646.3567392441</v>
+        <v>328596.0271898428</v>
       </c>
       <c r="H6" t="n">
-        <v>328646.3567392441</v>
+        <v>328596.0271898424</v>
       </c>
       <c r="I6" t="n">
-        <v>328646.3567392442</v>
+        <v>328596.0271898426</v>
       </c>
       <c r="J6" t="n">
-        <v>174502.3537623733</v>
+        <v>175604.6885762233</v>
       </c>
       <c r="K6" t="n">
-        <v>323633.9669339936</v>
+        <v>323737.4103275353</v>
       </c>
       <c r="L6" t="n">
-        <v>323633.9669339938</v>
+        <v>323737.4103275353</v>
       </c>
       <c r="M6" t="n">
-        <v>163275.5164333108</v>
+        <v>163378.9598268523</v>
       </c>
       <c r="N6" t="n">
-        <v>323633.9669339939</v>
+        <v>323737.4103275352</v>
       </c>
       <c r="O6" t="n">
-        <v>317953.4884163708</v>
+        <v>317772.9078237218</v>
       </c>
       <c r="P6" t="n">
-        <v>317953.4884163708</v>
+        <v>317772.9078237217</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="K2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="L2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="M2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="N2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.999235952125673</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.999235952125673</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>18.19522188379977</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.9894867204442</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.07530832711</v>
+        <v>203.4640111556029</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -27618,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="D5" t="n">
-        <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>57.59615060634727</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -27681,10 +27681,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>307.9770557334118</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.2511520437637</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>223.4471438346855</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>319.5589044564868</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27864,16 +27864,16 @@
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>380.7853339008053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>35.20184694280667</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,10 +28064,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>170.535215949722</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>25.49970577421234</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="C26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="D26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="E26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="F26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="G26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="H26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="T26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="U26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="V26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="W26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="X26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="Y26" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="C28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="D28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="E28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="F28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="G28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="H28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="I28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="J28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="K28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="L28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="M28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="N28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="O28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="P28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="R28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="S28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="T28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="U28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="V28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="W28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="X28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
       <c r="Y28" t="n">
-        <v>15.67101545715714</v>
+        <v>20.25577954503348</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y29" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="K31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="L31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="M31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="N31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="O31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="P31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="R31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="S31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y31" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y32" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="K34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="L34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="M34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="N34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="O34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="P34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="R34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="S34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y35" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="K37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="L37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="M37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="N37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="O37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="P37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="R37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="S37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y38" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="C40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="D40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="E40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="F40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="G40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="H40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="I40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="J40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="K40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="L40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="M40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="N40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="O40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="P40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="R40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="S40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="T40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="U40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="V40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="W40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="X40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
       <c r="Y40" t="n">
-        <v>15.67101545715714</v>
+        <v>16.25654359290781</v>
       </c>
     </row>
     <row r="41">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>176.5650354103359</v>
-      </c>
-      <c r="M2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34783,25 +34783,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>506.6900639491206</v>
+      </c>
+      <c r="P3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>14.48459394538775</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>460.0037840019794</v>
-      </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>500.9700927793178</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491207</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430334</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>10.70163254908636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35415,7 +35415,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M11" t="n">
         <v>784.1601929209636</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>487.0539519767314</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>39.72450315321286</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>181.6131681199073</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>288.022029289425</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>317.6856213706702</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>309.1752435461823</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>287.6821404474185</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>233.2526757233157</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>91.68963486765763</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>278.8496521518734</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35825,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>70.29230409914821</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36062,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>865.8245754309869</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>504.6010349596356</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36299,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q23" t="n">
         <v>324.4050573689818</v>
@@ -36439,28 +36439,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
@@ -36536,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197833</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>87.49261310237</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>29.89581283615766</v>
+        <v>34.48057692403401</v>
       </c>
       <c r="K28" t="n">
-        <v>171.7844778028521</v>
+        <v>176.3692418907284</v>
       </c>
       <c r="L28" t="n">
-        <v>278.1933389723698</v>
+        <v>282.7781030602462</v>
       </c>
       <c r="M28" t="n">
-        <v>307.856931053615</v>
+        <v>312.4416951414913</v>
       </c>
       <c r="N28" t="n">
-        <v>299.3465532291271</v>
+        <v>303.9313173170034</v>
       </c>
       <c r="O28" t="n">
-        <v>277.8534501303633</v>
+        <v>282.4382142182397</v>
       </c>
       <c r="P28" t="n">
-        <v>223.4239854062605</v>
+        <v>228.0087494941369</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.86094455060243</v>
+        <v>86.44570863847876</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>263.919946026635</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>29.89581283615766</v>
+        <v>30.48134097190833</v>
       </c>
       <c r="K31" t="n">
-        <v>171.7844778028521</v>
+        <v>172.3700059386027</v>
       </c>
       <c r="L31" t="n">
-        <v>278.1933389723698</v>
+        <v>278.7788671081205</v>
       </c>
       <c r="M31" t="n">
-        <v>307.856931053615</v>
+        <v>308.4424591893656</v>
       </c>
       <c r="N31" t="n">
-        <v>299.3465532291271</v>
+        <v>299.9320813648778</v>
       </c>
       <c r="O31" t="n">
-        <v>277.8534501303633</v>
+        <v>278.438978266114</v>
       </c>
       <c r="P31" t="n">
-        <v>223.4239854062605</v>
+        <v>224.0095135420112</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.86094455060243</v>
+        <v>82.44647268635309</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M32" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N32" t="n">
         <v>760.7889056955737</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>29.89581283615767</v>
+        <v>30.48134097190833</v>
       </c>
       <c r="K34" t="n">
-        <v>171.7844778028521</v>
+        <v>172.3700059386027</v>
       </c>
       <c r="L34" t="n">
-        <v>278.1933389723698</v>
+        <v>278.7788671081205</v>
       </c>
       <c r="M34" t="n">
-        <v>307.856931053615</v>
+        <v>308.4424591893656</v>
       </c>
       <c r="N34" t="n">
-        <v>299.3465532291271</v>
+        <v>299.9320813648778</v>
       </c>
       <c r="O34" t="n">
-        <v>277.8534501303633</v>
+        <v>278.438978266114</v>
       </c>
       <c r="P34" t="n">
-        <v>223.4239854062606</v>
+        <v>224.0095135420112</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.86094455060243</v>
+        <v>82.44647268635309</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>504.6010349596356</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>29.89581283615767</v>
+        <v>30.48134097190833</v>
       </c>
       <c r="K37" t="n">
-        <v>171.7844778028521</v>
+        <v>172.3700059386027</v>
       </c>
       <c r="L37" t="n">
-        <v>278.1933389723698</v>
+        <v>278.7788671081205</v>
       </c>
       <c r="M37" t="n">
-        <v>307.856931053615</v>
+        <v>308.4424591893656</v>
       </c>
       <c r="N37" t="n">
-        <v>299.3465532291271</v>
+        <v>299.9320813648778</v>
       </c>
       <c r="O37" t="n">
-        <v>277.8534501303633</v>
+        <v>278.438978266114</v>
       </c>
       <c r="P37" t="n">
-        <v>223.4239854062606</v>
+        <v>224.0095135420112</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.86094455060243</v>
+        <v>82.44647268635309</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K39" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>755.2584433238735</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.89581283615767</v>
+        <v>30.48134097190833</v>
       </c>
       <c r="K40" t="n">
-        <v>171.7844778028521</v>
+        <v>172.3700059386027</v>
       </c>
       <c r="L40" t="n">
-        <v>278.1933389723698</v>
+        <v>278.7788671081205</v>
       </c>
       <c r="M40" t="n">
-        <v>307.856931053615</v>
+        <v>308.4424591893656</v>
       </c>
       <c r="N40" t="n">
-        <v>299.3465532291271</v>
+        <v>299.9320813648778</v>
       </c>
       <c r="O40" t="n">
-        <v>277.8534501303633</v>
+        <v>278.438978266114</v>
       </c>
       <c r="P40" t="n">
-        <v>223.4239854062606</v>
+        <v>224.0095135420112</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.86094455060243</v>
+        <v>82.44647268635309</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>688.3272054397147</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N45" t="n">
-        <v>133.5425242304483</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
